--- a/Examples/Feldspar_Thermobarometry/Two_Feldspar_input.xlsx
+++ b/Examples/Feldspar_Thermobarometry/Two_Feldspar_input.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oregonstateuniversity-my.sharepoint.com/personal/wieserp_oregonstate_edu/Documents/Postdoc/PyMME/MyBarometers/Thermobar_outer/Examples/Feldspar_Thermobarometry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\OneDrive - Oregon State University\Postdoc\PyMME\MyBarometers\Thermobar_outer\Examples\Feldspar_Thermobarometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="14_{A998B071-12D4-4D0C-9831-ED4875052F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B03A5765-D55A-4A7E-86D8-893D974529EF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34A5AB1-1A49-48AF-93B5-380686CD56A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{273FEE2F-31E7-45B4-9E0B-954A0F6A9368}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13290" activeTab="2" xr2:uid="{273FEE2F-31E7-45B4-9E0B-954A0F6A9368}"/>
   </bookViews>
   <sheets>
     <sheet name="Paired_Plag_Kspar" sheetId="1" r:id="rId1"/>
-    <sheet name="Plag_Liq" sheetId="3" r:id="rId2"/>
-    <sheet name="Kspar_Liq" sheetId="2" r:id="rId3"/>
+    <sheet name="Plag" sheetId="3" r:id="rId2"/>
+    <sheet name="Kspar" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -50,18 +50,12 @@
     <t>SiO2_Kspar</t>
   </si>
   <si>
-    <t>TiO2_Kspar</t>
-  </si>
-  <si>
     <t>Al2O3_Kspar</t>
   </si>
   <si>
     <t>FeOt_Kspar</t>
   </si>
   <si>
-    <t>MnO_Kspar</t>
-  </si>
-  <si>
     <t>MgO_Kspar</t>
   </si>
   <si>
@@ -152,43 +146,13 @@
     <t>pair16</t>
   </si>
   <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>SiO2_Liq</t>
-  </si>
-  <si>
-    <t>TiO2_Liq</t>
-  </si>
-  <si>
-    <t>Al2O3_Liq</t>
-  </si>
-  <si>
-    <t>FeOt_Liq</t>
-  </si>
-  <si>
-    <t>MnO_Liq</t>
-  </si>
-  <si>
-    <t>MgO_Liq</t>
-  </si>
-  <si>
-    <t>CaO_Liq</t>
-  </si>
-  <si>
-    <t>Na2O_Liq</t>
-  </si>
-  <si>
-    <t>K2O_Liq</t>
-  </si>
-  <si>
-    <t>P2O5_Liq</t>
-  </si>
-  <si>
-    <t>H2O_Liq</t>
-  </si>
-  <si>
     <t>Cr2O3_Plag</t>
+  </si>
+  <si>
+    <t>Sample_ID_Plag</t>
+  </si>
+  <si>
+    <t>Sample_ID_Kspar</t>
   </si>
 </sst>
 </file>
@@ -621,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A00F122-56E9-43B3-8B10-BA4087BBF11F}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,43 +614,43 @@
         <v>3</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="K1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="P1" s="9" t="s">
         <v>1</v>
@@ -696,7 +660,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6">
         <v>65</v>
@@ -748,7 +712,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="6">
         <v>65.5</v>
@@ -800,7 +764,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="6">
         <v>65.400000000000006</v>
@@ -852,7 +816,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="6">
         <v>64.599999999999994</v>
@@ -904,7 +868,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" s="6">
         <v>61.8</v>
@@ -956,7 +920,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="6">
         <v>65.099999999999994</v>
@@ -1008,7 +972,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="6">
         <v>65</v>
@@ -1060,7 +1024,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="6">
         <v>64.900000000000006</v>
@@ -1112,7 +1076,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="6">
         <v>64.900000000000006</v>
@@ -1164,7 +1128,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="6">
         <v>66</v>
@@ -1216,7 +1180,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="6">
         <v>66</v>
@@ -1268,7 +1232,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="6">
         <v>65.5</v>
@@ -1320,7 +1284,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" s="6">
         <v>65.3</v>
@@ -1372,7 +1336,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="6">
         <v>66.400000000000006</v>
@@ -1424,7 +1388,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" s="6">
         <v>66</v>
@@ -1476,7 +1440,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="6">
         <v>65.900000000000006</v>
@@ -1668,797 +1632,341 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E19988-CD01-4F46-A7E7-B07123B6E30C}">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:X8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="W1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>49.1</v>
+        <v>57.3</v>
       </c>
       <c r="C2" s="4">
-        <v>3.22</v>
+        <v>0.09</v>
       </c>
       <c r="D2" s="4">
-        <v>14.4</v>
+        <v>26.6</v>
       </c>
       <c r="E2" s="4">
-        <v>14.8</v>
+        <v>0.43</v>
       </c>
       <c r="F2" s="4">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>3.2</v>
+        <v>0.03</v>
       </c>
       <c r="H2" s="4">
-        <v>6.72</v>
+        <v>8.33</v>
       </c>
       <c r="I2" s="4">
-        <v>3.34</v>
+        <v>6.11</v>
       </c>
       <c r="J2" s="4">
-        <v>1.7</v>
+        <v>0.49</v>
       </c>
       <c r="K2" s="4">
-        <v>1.1299999999999999</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4">
-        <v>0</v>
+        <v>1432.9758469502704</v>
       </c>
       <c r="M2" s="4">
-        <v>57.3</v>
-      </c>
-      <c r="N2" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="O2" s="4">
-        <v>26.6</v>
-      </c>
-      <c r="P2" s="4">
-        <v>0.43</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>0</v>
-      </c>
-      <c r="R2" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="S2" s="4">
-        <v>8.33</v>
-      </c>
-      <c r="T2" s="4">
-        <v>6.11</v>
-      </c>
-      <c r="U2" s="4">
-        <v>0.49</v>
-      </c>
-      <c r="V2" s="4">
-        <v>0</v>
-      </c>
-      <c r="W2" s="4">
-        <v>1432.9758469502704</v>
-      </c>
-      <c r="X2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>49.2</v>
+        <v>56.5</v>
       </c>
       <c r="C3" s="4">
-        <v>3.89</v>
+        <v>0.12</v>
       </c>
       <c r="D3" s="4">
-        <v>15.3</v>
+        <v>26.9</v>
       </c>
       <c r="E3" s="4">
-        <v>13.7</v>
+        <v>0.47</v>
       </c>
       <c r="F3" s="4">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>3.88</v>
+        <v>0.05</v>
       </c>
       <c r="H3" s="4">
-        <v>6.76</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="I3" s="4">
-        <v>3.44</v>
+        <v>5.66</v>
       </c>
       <c r="J3" s="4">
-        <v>1.22</v>
+        <v>0.47</v>
       </c>
       <c r="K3" s="4">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>56.5</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="O3" s="4">
-        <v>26.9</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.47</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="S3" s="4">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="T3" s="4">
-        <v>5.66</v>
-      </c>
-      <c r="U3" s="4">
-        <v>0.47</v>
-      </c>
-      <c r="V3" s="4">
-        <v>0</v>
-      </c>
-      <c r="W3" s="4">
         <v>1449.359937485091</v>
       </c>
-      <c r="X3">
+      <c r="M3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>49.6</v>
+        <v>57.6</v>
       </c>
       <c r="C4" s="4">
-        <v>3.79</v>
+        <v>0.11</v>
       </c>
       <c r="D4" s="4">
-        <v>15.8</v>
+        <v>26.3</v>
       </c>
       <c r="E4" s="4">
-        <v>13</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="4">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>4.26</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H4" s="4">
-        <v>6.59</v>
+        <v>8.5</v>
       </c>
       <c r="I4" s="4">
-        <v>3.65</v>
+        <v>6.27</v>
       </c>
       <c r="J4" s="4">
-        <v>1.04</v>
+        <v>0.4</v>
       </c>
       <c r="K4" s="4">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>57.6</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0.11</v>
-      </c>
-      <c r="O4" s="4">
-        <v>26.3</v>
-      </c>
-      <c r="P4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="S4" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="T4" s="4">
-        <v>6.27</v>
-      </c>
-      <c r="U4" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="V4" s="4">
-        <v>0</v>
-      </c>
-      <c r="W4" s="4">
         <v>1445.4522838919643</v>
       </c>
-      <c r="X4">
+      <c r="M4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>47.1</v>
+        <v>57.2</v>
       </c>
       <c r="C5" s="4">
-        <v>4.21</v>
+        <v>0.16</v>
       </c>
       <c r="D5" s="4">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E5" s="4">
-        <v>17.8</v>
+        <v>0.62</v>
       </c>
       <c r="F5" s="4">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>3.4</v>
+        <v>0.06</v>
       </c>
       <c r="H5" s="4">
-        <v>7.28</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="I5" s="4">
-        <v>2.93</v>
+        <v>5.58</v>
       </c>
       <c r="J5" s="4">
-        <v>2.02</v>
+        <v>0.84</v>
       </c>
       <c r="K5" s="4">
-        <v>2.3199999999999998</v>
+        <v>0</v>
       </c>
       <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>57.2</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0.16</v>
-      </c>
-      <c r="O5" s="4">
-        <v>27</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0.62</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="S5" s="4">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="T5" s="4">
-        <v>5.58</v>
-      </c>
-      <c r="U5" s="4">
-        <v>0.84</v>
-      </c>
-      <c r="V5" s="4">
-        <v>0</v>
-      </c>
-      <c r="W5" s="4">
         <v>1396.3069169073092</v>
       </c>
-      <c r="X5">
+      <c r="M5">
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>48.1</v>
+        <v>56.7</v>
       </c>
       <c r="C6" s="4">
-        <v>3.88</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D6" s="4">
-        <v>13.2</v>
+        <v>27.6</v>
       </c>
       <c r="E6" s="4">
-        <v>16.399999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="F6" s="4">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>4.0199999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="H6" s="4">
-        <v>6.51</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="I6" s="4">
-        <v>3.36</v>
+        <v>5.58</v>
       </c>
       <c r="J6" s="4">
-        <v>1.36</v>
+        <v>0.48</v>
       </c>
       <c r="K6" s="4">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>56.7</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="O6" s="4">
-        <v>27.6</v>
-      </c>
-      <c r="P6" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4">
-        <v>0.11</v>
-      </c>
-      <c r="S6" s="4">
-        <v>9.4600000000000009</v>
-      </c>
-      <c r="T6" s="4">
-        <v>5.58</v>
-      </c>
-      <c r="U6" s="4">
-        <v>0.48</v>
-      </c>
-      <c r="V6" s="4">
-        <v>0</v>
-      </c>
-      <c r="W6" s="4">
         <v>1402.0462236381372</v>
       </c>
-      <c r="X6">
+      <c r="M6">
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>48.2</v>
+        <v>56</v>
       </c>
       <c r="C7" s="4">
-        <v>4.8899999999999997</v>
+        <v>0.21</v>
       </c>
       <c r="D7" s="4">
-        <v>14.1</v>
+        <v>26.6</v>
       </c>
       <c r="E7" s="4">
-        <v>14.2</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F7" s="4">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>4.67</v>
+        <v>0.1</v>
       </c>
       <c r="H7" s="4">
-        <v>6.37</v>
+        <v>8.99</v>
       </c>
       <c r="I7" s="4">
-        <v>3.46</v>
+        <v>5.7</v>
       </c>
       <c r="J7" s="4">
-        <v>1.1599999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="K7" s="4">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>56</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0.21</v>
-      </c>
-      <c r="O7" s="4">
-        <v>26.6</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>0</v>
-      </c>
-      <c r="R7" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="S7" s="4">
-        <v>8.99</v>
-      </c>
-      <c r="T7" s="4">
-        <v>5.7</v>
-      </c>
-      <c r="U7" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="V7" s="4">
-        <v>0</v>
-      </c>
-      <c r="W7" s="4">
         <v>1401.5096722771564</v>
       </c>
-      <c r="X7">
+      <c r="M7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>49.5</v>
+        <v>56.1</v>
       </c>
       <c r="C8" s="4">
-        <v>4.2300000000000004</v>
+        <v>0.21</v>
       </c>
       <c r="D8" s="4">
-        <v>14.8</v>
+        <v>27.8</v>
       </c>
       <c r="E8" s="4">
-        <v>14</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F8" s="4">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>4.63</v>
+        <v>0.09</v>
       </c>
       <c r="H8" s="4">
-        <v>6.36</v>
+        <v>9.94</v>
       </c>
       <c r="I8" s="4">
-        <v>3.76</v>
+        <v>5.53</v>
       </c>
       <c r="J8" s="4">
-        <v>1.04</v>
+        <v>0.38</v>
       </c>
       <c r="K8" s="4">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <v>56.1</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0.21</v>
-      </c>
-      <c r="O8" s="4">
-        <v>27.8</v>
-      </c>
-      <c r="P8" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>0</v>
-      </c>
-      <c r="R8" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="S8" s="4">
-        <v>9.94</v>
-      </c>
-      <c r="T8" s="4">
-        <v>5.53</v>
-      </c>
-      <c r="U8" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="V8" s="4">
-        <v>0</v>
-      </c>
-      <c r="W8" s="4">
         <v>1410.095592080866</v>
       </c>
-      <c r="X8">
+      <c r="M8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2467,898 +1975,397 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715FBE33-372D-4D70-A95F-EA4F031B91A2}">
-  <dimension ref="A1:X20"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="42" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="X1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>61.71</v>
+        <v>65.5</v>
       </c>
       <c r="C2">
-        <v>0.45</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D2">
-        <v>18.559999999999999</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E2">
-        <v>3.17</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.27</v>
+        <v>0.75</v>
       </c>
       <c r="G2">
-        <v>0.23</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="H2">
-        <v>1.64</v>
+        <v>9.36</v>
       </c>
       <c r="I2">
-        <v>6.11</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>7.09</v>
-      </c>
-      <c r="K2">
-        <v>0.02</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>65.5</v>
-      </c>
-      <c r="O2">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="P2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0.75</v>
-      </c>
-      <c r="T2">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="U2">
-        <v>9.36</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="X2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>61.71</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="C3">
-        <v>0.45</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="D3">
-        <v>18.559999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="E3">
-        <v>3.17</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.27</v>
+        <v>0.59</v>
       </c>
       <c r="G3">
-        <v>0.23</v>
+        <v>3.13</v>
       </c>
       <c r="H3">
-        <v>1.64</v>
+        <v>11.5</v>
       </c>
       <c r="I3">
-        <v>6.11</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7.09</v>
-      </c>
-      <c r="K3">
-        <v>0.02</v>
-      </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
-      <c r="M3">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="O3">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="P3">
-        <v>0.05</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0.59</v>
-      </c>
-      <c r="T3">
-        <v>3.13</v>
-      </c>
-      <c r="U3">
-        <v>11.5</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="X3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>62.71</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="C4">
-        <v>0.45</v>
+        <v>18.8</v>
       </c>
       <c r="D4">
-        <v>18.559999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="E4">
-        <v>3.17</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.27</v>
+        <v>0.39</v>
       </c>
       <c r="G4">
-        <v>0.23</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H4">
-        <v>1.64</v>
+        <v>14.8</v>
       </c>
       <c r="I4">
-        <v>6.11</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>6.09</v>
-      </c>
-      <c r="K4">
-        <v>0.02</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="O4">
-        <v>18.8</v>
-      </c>
-      <c r="P4">
-        <v>0.09</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0.39</v>
-      </c>
-      <c r="T4">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="U4">
-        <v>14.8</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="X4">
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>62.71</v>
+        <v>61.8</v>
       </c>
       <c r="C5">
-        <v>0.45</v>
+        <v>19.2</v>
       </c>
       <c r="D5">
-        <v>18.559999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E5">
-        <v>3.17</v>
+        <v>0.03</v>
       </c>
       <c r="F5">
-        <v>0.27</v>
+        <v>0.66</v>
       </c>
       <c r="G5">
-        <v>0.23</v>
+        <v>1.71</v>
       </c>
       <c r="H5">
-        <v>1.64</v>
+        <v>12.9</v>
       </c>
       <c r="I5">
-        <v>6.11</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>6.09</v>
-      </c>
-      <c r="K5">
-        <v>0.02</v>
-      </c>
-      <c r="L5">
-        <v>5</v>
-      </c>
-      <c r="M5">
-        <v>61.8</v>
-      </c>
-      <c r="O5">
-        <v>19.2</v>
-      </c>
-      <c r="P5">
-        <v>0.51</v>
-      </c>
-      <c r="R5">
-        <v>0.03</v>
-      </c>
-      <c r="S5">
-        <v>0.66</v>
-      </c>
-      <c r="T5">
-        <v>1.71</v>
-      </c>
-      <c r="U5">
-        <v>12.9</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="X5">
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>62.71</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="C6">
-        <v>0.45</v>
+        <v>19.2</v>
       </c>
       <c r="D6">
-        <v>18.559999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="E6">
-        <v>3.17</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
       <c r="G6">
-        <v>0.23</v>
+        <v>2.87</v>
       </c>
       <c r="H6">
-        <v>1.64</v>
+        <v>12.6</v>
       </c>
       <c r="I6">
-        <v>6.11</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>6.09</v>
-      </c>
-      <c r="K6">
-        <v>0.02</v>
-      </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
-      <c r="M6">
-        <v>65.099999999999994</v>
-      </c>
-      <c r="O6">
-        <v>19.2</v>
-      </c>
-      <c r="P6">
-        <v>0.05</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0.36</v>
-      </c>
-      <c r="T6">
-        <v>2.87</v>
-      </c>
-      <c r="U6">
-        <v>12.6</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="X6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>62.71</v>
+        <v>65</v>
       </c>
       <c r="C7">
-        <v>0.45</v>
+        <v>19.2</v>
       </c>
       <c r="D7">
-        <v>18.559999999999999</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>3.17</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.27</v>
+        <v>0.35</v>
       </c>
       <c r="G7">
-        <v>0.23</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="H7">
-        <v>1.64</v>
+        <v>12.8</v>
       </c>
       <c r="I7">
-        <v>6.11</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>6.09</v>
-      </c>
-      <c r="K7">
-        <v>0.02</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7">
-        <v>65</v>
-      </c>
-      <c r="O7">
-        <v>19.2</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0.35</v>
-      </c>
-      <c r="T7">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="U7">
-        <v>12.8</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="X7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>62.71</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="C8">
-        <v>0.45</v>
+        <v>19.3</v>
       </c>
       <c r="D8">
-        <v>18.559999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="E8">
-        <v>3.17</v>
+        <v>0.03</v>
       </c>
       <c r="F8">
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G8">
-        <v>0.23</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H8">
-        <v>1.64</v>
+        <v>13.3</v>
       </c>
       <c r="I8">
-        <v>6.11</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>6.09</v>
-      </c>
-      <c r="K8">
-        <v>0.02</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="O8">
-        <v>19.3</v>
-      </c>
-      <c r="P8">
-        <v>0.06</v>
-      </c>
-      <c r="R8">
-        <v>0.03</v>
-      </c>
-      <c r="S8">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="T8">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="U8">
-        <v>13.3</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="X8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>62.71</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="C9">
-        <v>0.45</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D9">
-        <v>18.559999999999999</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>3.17</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
       <c r="G9">
-        <v>0.23</v>
+        <v>3.02</v>
       </c>
       <c r="H9">
-        <v>1.64</v>
+        <v>12.1</v>
       </c>
       <c r="I9">
-        <v>6.11</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>6.09</v>
-      </c>
-      <c r="K9">
-        <v>0.02</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="O9">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0.17</v>
-      </c>
-      <c r="T9">
-        <v>3.02</v>
-      </c>
-      <c r="U9">
-        <v>12.1</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="X9">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>62.71</v>
+        <v>66</v>
       </c>
       <c r="C10">
-        <v>0.45</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D10">
-        <v>18.559999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="E10">
-        <v>3.17</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="G10">
-        <v>0.23</v>
+        <v>3.73</v>
       </c>
       <c r="H10">
-        <v>1.64</v>
+        <v>11.3</v>
       </c>
       <c r="I10">
-        <v>6.11</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>6.09</v>
-      </c>
-      <c r="K10">
-        <v>0.02</v>
-      </c>
-      <c r="L10">
-        <v>5</v>
-      </c>
-      <c r="M10">
-        <v>66</v>
-      </c>
-      <c r="O10">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="P10">
-        <v>0.05</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0.18</v>
-      </c>
-      <c r="T10">
-        <v>3.73</v>
-      </c>
-      <c r="U10">
-        <v>11.3</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="X10">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>63.71</v>
+        <v>66</v>
       </c>
       <c r="C11">
-        <v>0.45</v>
+        <v>19.2</v>
       </c>
       <c r="D11">
-        <v>18.559999999999999</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>3.17</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="G11">
-        <v>0.23</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="H11">
-        <v>1.64</v>
+        <v>10.4</v>
       </c>
       <c r="I11">
-        <v>5.1100000000000003</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>6.09</v>
-      </c>
-      <c r="K11">
-        <v>0.02</v>
-      </c>
-      <c r="L11">
-        <v>5</v>
-      </c>
-      <c r="M11">
-        <v>66</v>
-      </c>
-      <c r="O11">
-        <v>19.2</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0.18</v>
-      </c>
-      <c r="T11">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="U11">
-        <v>10.4</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="X11">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>63.71</v>
+        <v>65.5</v>
       </c>
       <c r="C12">
-        <v>0.45</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D12">
-        <v>18.559999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="E12">
-        <v>3.17</v>
+        <v>0.04</v>
       </c>
       <c r="F12">
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
       <c r="G12">
-        <v>0.23</v>
+        <v>2.58</v>
       </c>
       <c r="H12">
-        <v>1.64</v>
+        <v>12.5</v>
       </c>
       <c r="I12">
-        <v>5.1100000000000003</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6.09</v>
-      </c>
-      <c r="K12">
-        <v>0.02</v>
-      </c>
-      <c r="L12">
-        <v>5</v>
-      </c>
-      <c r="M12">
-        <v>65.5</v>
-      </c>
-      <c r="O12">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="P12">
-        <v>0.11</v>
-      </c>
-      <c r="R12">
-        <v>0.04</v>
-      </c>
-      <c r="S12">
-        <v>0.17</v>
-      </c>
-      <c r="T12">
-        <v>2.58</v>
-      </c>
-      <c r="U12">
-        <v>12.5</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="X12">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
